--- a/リソース/texture.xlsx
+++ b/リソース/texture.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Block_Test.png</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -199,6 +199,62 @@
   </si>
   <si>
     <t>64,80</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>64,64</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定タイプ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>円</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrow_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lazer_test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>64*256</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>256*256</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>128*128</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -331,6 +387,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -346,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,19 +451,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P37"/>
+  <dimension ref="B2:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M75" sqref="M72:M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -686,65 +775,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="8"/>
+      <c r="O2" s="9"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="9"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="6" t="s">
         <v>35</v>
       </c>
@@ -768,36 +857,36 @@
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="J5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
@@ -810,13 +899,13 @@
       <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -824,8 +913,8 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
@@ -837,8 +926,8 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -846,8 +935,8 @@
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
@@ -859,42 +948,42 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="6" t="s">
         <v>20</v>
       </c>
@@ -912,28 +1001,28 @@
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -941,8 +1030,8 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -950,8 +1039,8 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -963,35 +1052,35 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="6" t="s">
         <v>20</v>
       </c>
@@ -1008,21 +1097,21 @@
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1030,8 +1119,8 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1039,42 +1128,42 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="6" t="s">
         <v>29</v>
       </c>
@@ -1092,28 +1181,28 @@
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1121,8 +1210,8 @@
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1130,14 +1219,361 @@
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="10">
+        <v>32</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="15">
+        <v>32256</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="9"/>
+      <c r="H69" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="3"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="3"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="89">
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="D73:E75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="D64:E66"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="D55:E57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="L6:M8"/>
@@ -1183,6 +1619,17 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="D45:E47"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D43:E43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
